--- a/docs/vendas.xlsx
+++ b/docs/vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nandho\Financas\App_financeiro\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1606F7B-4286-4658-AAA8-9D056A9091AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6071B-16A7-4547-B4AA-6910DCB81C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A9684AB-B8D0-472A-820D-D84C283AA782}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="60">
   <si>
     <t>Transferência Pix</t>
   </si>
@@ -47,9 +47,6 @@
     <t>CC-Banco Bradesco</t>
   </si>
   <si>
-    <t>Vendas</t>
-  </si>
-  <si>
     <t>Maria de Lourdes</t>
   </si>
   <si>
@@ -197,25 +194,31 @@
     <t>Creusa Aparecida Akib</t>
   </si>
   <si>
-    <t>PAGO</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>TIPO DE RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>CONTA</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO</t>
-  </si>
-  <si>
-    <t>DATA</t>
+    <t>client</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>paid_at</t>
+  </si>
+  <si>
+    <t>observacoes</t>
   </si>
 </sst>
 </file>
@@ -251,9 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,2118 +592,1853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF96481-49EF-457B-B50B-CC85BDA67F48}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45659</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>75</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45659</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>340</v>
       </c>
       <c r="F3">
-        <v>340</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45659</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>680</v>
       </c>
       <c r="F4">
-        <v>680</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45660</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45660</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>180</v>
       </c>
       <c r="F6">
-        <v>180</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45663</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>155</v>
       </c>
       <c r="F7">
-        <v>155</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45664</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>105</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45672</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45677</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45677</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>110</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45681</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45681</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>35</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45684</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>170</v>
       </c>
       <c r="F15">
-        <v>170</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45684</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>186.22</v>
       </c>
       <c r="F16">
-        <v>186.22</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45687</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>35</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45688</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>95</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45688</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>180</v>
       </c>
       <c r="F19">
-        <v>180</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45691</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>80</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45691</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>90</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45693</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45693</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>90</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45693</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>224</v>
       </c>
       <c r="F24">
-        <v>224</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45695</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>170</v>
       </c>
       <c r="F25">
-        <v>170</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45698</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>78.09</v>
       </c>
       <c r="F26">
-        <v>78.09</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45698</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>80</v>
       </c>
       <c r="F27">
-        <v>80</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45698</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>90</v>
       </c>
       <c r="F28">
-        <v>90</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45698</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>95</v>
       </c>
       <c r="F29">
-        <v>95</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45699</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45705</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45709</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45</v>
       </c>
       <c r="F32">
-        <v>45</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45709</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>78.09</v>
       </c>
       <c r="F33">
-        <v>78.09</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45709</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45712</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>85</v>
       </c>
       <c r="F35">
-        <v>85</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45712</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45714</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>80.760000000000005</v>
       </c>
       <c r="F37">
-        <v>80.760000000000005</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45714</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>100</v>
       </c>
       <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45715</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>100</v>
       </c>
       <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45715</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>121.61</v>
       </c>
       <c r="F40">
-        <v>121.61</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45723</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>105</v>
       </c>
       <c r="F41">
-        <v>105</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45723</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>150</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45727</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>230</v>
       </c>
       <c r="F43">
-        <v>230</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45729</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>85</v>
       </c>
       <c r="F44">
-        <v>85</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45730</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>54</v>
       </c>
       <c r="F45">
-        <v>54</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45730</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>85</v>
       </c>
       <c r="F46">
-        <v>85</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45734</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>20</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45735</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>410</v>
       </c>
       <c r="F48">
-        <v>410</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45736</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15</v>
       </c>
       <c r="F49">
-        <v>15</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45737</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>137.5</v>
       </c>
       <c r="F50">
-        <v>137.5</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45740</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45740</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>15</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45740</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>85</v>
       </c>
       <c r="F53">
-        <v>85</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45740</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>100</v>
       </c>
       <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45742</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>50</v>
       </c>
       <c r="F55">
-        <v>50</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45743</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>70</v>
       </c>
       <c r="F56">
-        <v>70</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45743</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>180</v>
       </c>
       <c r="F57">
-        <v>180</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45744</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>40</v>
       </c>
       <c r="F58">
-        <v>40</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45747</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6</v>
       </c>
       <c r="F59">
-        <v>6</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45747</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>184</v>
       </c>
       <c r="F60">
-        <v>184</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45748</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>117</v>
       </c>
       <c r="F61">
-        <v>117</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45748</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>150</v>
       </c>
       <c r="F62">
-        <v>150</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45748</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>385</v>
       </c>
       <c r="F63">
-        <v>385</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45749</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>51</v>
       </c>
       <c r="F64">
-        <v>51</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45750</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>285</v>
       </c>
       <c r="F65">
-        <v>285</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45751</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>380</v>
       </c>
       <c r="F66">
-        <v>380</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45754</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>120</v>
       </c>
       <c r="F67">
-        <v>120</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45755</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>700</v>
       </c>
       <c r="F68">
-        <v>700</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45761</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>90</v>
       </c>
       <c r="F69">
-        <v>90</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45762</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>15</v>
       </c>
       <c r="F70">
-        <v>15</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45762</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>185</v>
       </c>
       <c r="F71">
-        <v>185</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45769</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>120</v>
       </c>
       <c r="F72">
-        <v>120</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45769</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>170</v>
       </c>
       <c r="F73">
-        <v>170</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45769</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>270</v>
       </c>
       <c r="F74">
-        <v>270</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45770</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>159</v>
       </c>
       <c r="F75">
-        <v>159</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45775</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>290</v>
       </c>
       <c r="F76">
-        <v>290</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45775</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>290</v>
       </c>
       <c r="F77">
-        <v>290</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45782</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45784</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>100</v>
       </c>
       <c r="F79">
-        <v>100</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45784</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>274</v>
       </c>
       <c r="F80">
-        <v>274</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45796</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>120</v>
       </c>
       <c r="F81">
-        <v>120</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45810</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>110</v>
       </c>
       <c r="F82">
-        <v>110</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45810</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>153.91999999999999</v>
       </c>
       <c r="F83">
-        <v>153.91999999999999</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45810</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>300</v>
       </c>
       <c r="F84">
-        <v>300</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45813</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>300</v>
       </c>
       <c r="F85">
-        <v>300</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45815</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>110</v>
       </c>
       <c r="F86">
-        <v>110</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45815</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>195</v>
       </c>
       <c r="F87">
-        <v>195</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45818</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>200</v>
       </c>
       <c r="F88">
-        <v>200</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45824</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>150</v>
       </c>
       <c r="F89">
-        <v>150</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45825</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>100</v>
       </c>
       <c r="F90">
-        <v>100</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45825</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>100</v>
       </c>
       <c r="F91">
-        <v>100</v>
-      </c>
-      <c r="G91">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G91" xr:uid="{CEF96481-49EF-457B-B50B-CC85BDA67F48}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>